--- a/嘌呤含量表.xlsx
+++ b/嘌呤含量表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Wiki\Uric-acid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40822B35-688C-4ECF-B592-5AD098854E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05229018-A891-4938-9ECD-1553933CDE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>嘌呤含量表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,50 @@
   </si>
   <si>
     <t>鲈鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酱油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚝油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虾酱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆豉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发酵类调料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火锅底料（动物油类）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动物油</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -94,11 +138,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -380,42 +424,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="20.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="25" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>70</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="25" x14ac:dyDescent="0.5">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="25" x14ac:dyDescent="0.5">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
